--- a/data/income_statement/3digits/total/205_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/205_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>205-Manufacture of other chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>205-Manufacture of other chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2899909.36082</v>
@@ -956,37 +862,42 @@
         <v>3537645.46187</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4673129.96572</v>
+        <v>4673129.965720001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4864318.014479999</v>
+        <v>4864318.01448</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5684487.670729999</v>
+        <v>5684487.67073</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>6633182.46846</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6310238.95553</v>
+        <v>7020323.97431</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7143653.13086</v>
+        <v>7215359.15894</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9684251.18571</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12808675.28044</v>
+        <v>12811009.00494</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14381002.4407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14409727.83837</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18579352.116</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2568793.97332</v>
@@ -998,34 +909,39 @@
         <v>4130296.64538</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4294302.655689999</v>
+        <v>4294302.65569</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4968996.14131</v>
+        <v>4968996.141310001</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>5743559.236190001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5372055.886770001</v>
+        <v>6068403.08957</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6008166.5058</v>
+        <v>6077333.40575</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8028935.974469999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10640442.48151</v>
+        <v>10642776.03958</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11701221.30256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11728919.6575</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14775065.982</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>311946.69417</v>
@@ -1037,7 +953,7 @@
         <v>519860.20925</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>541820.5853700001</v>
+        <v>541820.5853699999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>688084.2442999999</v>
@@ -1046,10 +962,10 @@
         <v>856778.38826</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>894278.91677</v>
+        <v>905121.29291</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1089469.87295</v>
+        <v>1092009.00107</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1591268.28292</v>
@@ -1058,13 +974,18 @@
         <v>2058929.43099</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2580117.00022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2580831.93863</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3670653.467</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>19168.69333</v>
@@ -1085,25 +1006,30 @@
         <v>32844.84401</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>43904.15199</v>
+        <v>46799.59183</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>46016.75211</v>
+        <v>46016.75212</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>64046.92832</v>
+        <v>64046.92831999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>109303.36794</v>
+        <v>109303.53437</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>99664.13791999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>99976.24223999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>133632.667</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>45940.04846</v>
@@ -1124,25 +1050,30 @@
         <v>107956.08439</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>256400.27161</v>
+        <v>272654.0905</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>129466.99227</v>
+        <v>130836.14128</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>139065.58549</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>269097.43789</v>
+        <v>269211.35011</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>173351.82858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>173872.13993</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>264192.512</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>21231.49046</v>
@@ -1160,28 +1091,33 @@
         <v>41184.68302</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>54189.03995000001</v>
+        <v>54189.03995</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>146227.44802</v>
+        <v>148192.85154</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>50137.69456</v>
+        <v>50276.35222</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>58943.92009</v>
+        <v>58943.92008999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>180173.06647</v>
+        <v>180286.97869</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>85575.74622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>85896.0294</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>135718.676</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>21223.61356</v>
@@ -1202,25 +1138,30 @@
         <v>39340.85058</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>59592.12362</v>
+        <v>71884.69470000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>60957.34348</v>
+        <v>62187.83483000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>52515.39535</v>
+        <v>52515.39534999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>65242.71524</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>67341.76360999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>67348.15788</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>95106.788</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3484.94444</v>
@@ -1229,7 +1170,7 @@
         <v>6374.1925</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7751.58545</v>
+        <v>7751.585450000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>10354.54813</v>
@@ -1241,7 +1182,7 @@
         <v>14426.19386</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>50580.69997</v>
+        <v>52576.54426</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>18371.95423</v>
@@ -1253,13 +1194,18 @@
         <v>23681.65618</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20434.31875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20627.95265</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>33367.048</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2853969.31236</v>
@@ -1271,34 +1217,39 @@
         <v>4590195.36678</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4795543.433139999</v>
+        <v>4795543.43314</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5605508.896729999</v>
+        <v>5605508.89673</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6525226.38407</v>
+        <v>6525226.384070001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6053838.68392</v>
+        <v>6747669.88381</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7014186.138590001</v>
+        <v>7084523.01766</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>9545185.600219999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12539577.84255</v>
+        <v>12541797.65483</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14207650.61212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14235855.69844</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>18315159.604</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2141236.45889</v>
@@ -1310,34 +1261,39 @@
         <v>3583150.07382</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3767378.929320001</v>
+        <v>3767378.92932</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4331293.73879</v>
+        <v>4331293.738789999</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>5123982.72949</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4643814.55566</v>
+        <v>5185494.19942</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5254083.947819999</v>
+        <v>5296383.02767</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>7190396.989519999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9396855.65552</v>
+        <v>9398750.323239999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10824559.9807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10843021.96907</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13349553.984</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1628215.89205</v>
@@ -1358,28 +1314,33 @@
         <v>4051720.77958</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3598433.31779</v>
+        <v>4123061.24197</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4207064.28529</v>
+        <v>4246531.72085</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>5723490.21221</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7531053.19077</v>
+        <v>7532748.07229</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8274016.496530001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8287331.433859999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10265288.034</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>477704.2187499999</v>
+        <v>477704.21875</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>636766.1757</v>
@@ -1391,40 +1352,45 @@
         <v>748596.54629</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>792012.7661399998</v>
+        <v>792012.76614</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>992781.273</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>978256.3596500001</v>
+        <v>994196.4782799999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>923076.82492</v>
+        <v>925029.47526</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1285292.67</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1724385.99259</v>
+        <v>1724535.79451</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2383055.8293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2387550.45141</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2857456.042</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>27794.66778</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>47139.98567999999</v>
+        <v>47139.98568</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>52730.38338000001</v>
+        <v>52730.38338</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>19748.07216</v>
@@ -1436,25 +1402,30 @@
         <v>57763.28716</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>53870.18030000001</v>
+        <v>54981.78125000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>99386.36159</v>
+        <v>100265.35554</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>140828.41204</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>120748.75448</v>
+        <v>120798.73876</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>132492.62102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>133139.14995</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>176257.352</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7521.680310000001</v>
@@ -1487,19 +1458,24 @@
         <v>20667.71768</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>34995.03385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>35000.93385</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>50552.556</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>712732.85347</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>763401.2177899999</v>
+        <v>763401.21779</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1007045.29296</v>
@@ -1514,25 +1490,30 @@
         <v>1401243.65458</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1410024.12826</v>
+        <v>1562175.68439</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1760102.19077</v>
+        <v>1788139.98999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2354788.6107</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3142722.18703</v>
+        <v>3143047.33159</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3383090.63142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3392833.72937</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4965605.62</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>395123.85022</v>
@@ -1553,31 +1534,36 @@
         <v>834738.02432</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>833444.7463699999</v>
+        <v>872530.2061800001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>961274.8904</v>
+        <v>978979.2142299999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1174270.95869</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1392732.77914</v>
+        <v>1395193.95537</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1599460.01103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1609266.07752</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2041829.166</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>8013.074790000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>9785.038690000001</v>
+        <v>9785.038689999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>10653.51615</v>
@@ -1592,25 +1578,30 @@
         <v>20195.36147</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>16841.11629</v>
+        <v>21312.24276</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>26575.42569</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>26896.65475000001</v>
+        <v>26896.65475</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>37842.10618</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>54404.78444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>54278.74427</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>74975.41899999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>211341.17595</v>
@@ -1619,7 +1610,7 @@
         <v>254536.3977</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>314440.54192</v>
+        <v>314440.5419199999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>337409.47483</v>
@@ -1631,25 +1622,30 @@
         <v>458840.49725</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>451660.99314</v>
+        <v>464740.29931</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>510214.9941</v>
+        <v>521425.99097</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>652731.4227100001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>739854.347</v>
+        <v>740148.8568600002</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>842329.3965</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>848831.52092</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1076978.759</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>175769.59948</v>
@@ -1667,28 +1663,33 @@
         <v>329385.22023</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>355702.1656</v>
+        <v>355702.1655999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>364942.63694</v>
+        <v>386477.66411</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>424484.47061</v>
+        <v>430977.79757</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>494642.88123</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>615036.32596</v>
+        <v>617202.99233</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>702725.8300899999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>706155.81233</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>889874.988</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>317609.00325</v>
@@ -1709,25 +1710,30 @@
         <v>566505.63026</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>576579.38189</v>
+        <v>689645.4782100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>798827.3003700001</v>
+        <v>809160.77576</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1180517.65201</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1749989.40789</v>
+        <v>1747853.37622</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1783630.62039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1783567.65185</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2923776.454</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>108523.75393</v>
@@ -1748,25 +1754,30 @@
         <v>309092.4211</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>378713.2574</v>
+        <v>428370.60274</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>417633.66998</v>
+        <v>418145.06857</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>559725.08871</v>
+        <v>559725.0887099999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1546751.97265</v>
+        <v>1547834.0476</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1060437.39322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1060641.73359</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2128551.753</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3132.76848</v>
@@ -1778,7 +1789,7 @@
         <v>140.50329</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>829.2508300000001</v>
+        <v>829.25083</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>21465.51272</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3501.70454</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>833.811</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,20 +1856,25 @@
       <c r="M27" s="48" t="n">
         <v>7373.93183</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>80279.549</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6928.35045</v>
+        <v>6928.350449999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6204.20392</v>
+        <v>6204.203919999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7180.974109999999</v>
+        <v>7180.97411</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>9491.1335</v>
@@ -1865,25 +1886,30 @@
         <v>22400.67817</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>29573.54057</v>
+        <v>30261.19348</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>43950.95428</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>56470.39814</v>
+        <v>56470.39813999999</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>50115.95183</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>79105.19455000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>79175.83289000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>66000.281</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1771.62539</v>
@@ -1904,7 +1930,7 @@
         <v>2624.07756</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2204.10596</v>
+        <v>2220.23891</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2464.35549</v>
@@ -1916,19 +1942,24 @@
         <v>2542.1181</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5831.90337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2764.99882</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2957.476</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6037.401609999999</v>
+        <v>6037.40161</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>8975.979289999999</v>
+        <v>8975.979290000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>7323.57618</v>
@@ -1943,10 +1974,10 @@
         <v>7050.211049999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7003.138300000001</v>
+        <v>7017.69968</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11961.15116</v>
+        <v>11978.14516</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11471.27322</v>
@@ -1955,19 +1986,24 @@
         <v>24313.1694</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>22672.48267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22289.15424</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>29263.802</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>918.4262200000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>763.75609</v>
+        <v>763.7560900000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>507.51726</v>
@@ -1982,10 +2018,10 @@
         <v>27690.37684</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4882.317059999999</v>
+        <v>4882.31706</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>843.5583399999999</v>
+        <v>843.55834</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1960.33089</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>16624.83192</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>37992.17</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>77614.69865000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>79667.13824</v>
+        <v>79667.13824000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>111880.26095</v>
@@ -2021,25 +2062,30 @@
         <v>182790.3441</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>288428.29457</v>
+        <v>335277.92609</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>290839.065</v>
+        <v>291325.33926</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>411130.44113</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1296496.82007</v>
+        <v>1297473.10902</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>755058.3135500001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>758138.33109</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1785715.03</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>140.19196</v>
@@ -2060,7 +2106,7 @@
         <v>19190.01047</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>21217.68467</v>
+        <v>21849.90984</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>30951.83377</v>
@@ -2072,13 +2118,18 @@
         <v>57162.95019</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>84399.34281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>84399.82075999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>44676.219</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11980.29117</v>
@@ -2132,31 +2188,36 @@
         <v>28678.94189</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>42530.67913999999</v>
+        <v>42530.67914</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>43155.51946</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23534.09034</v>
+        <v>24991.23175</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>31628.83165</v>
+        <v>31636.96198</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>50543.58498000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>90927.04612</v>
+        <v>91032.83212000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>85869.68798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>86373.1275</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>80833.41499999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>120336.65588</v>
@@ -2177,25 +2238,30 @@
         <v>207363.92841</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>443828.87391</v>
+        <v>481282.32309</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>379826.61339</v>
+        <v>384741.3081800001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>623640.38119</v>
+        <v>623640.3811900001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1642662.21719</v>
+        <v>1644819.21776</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1042327.11482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1043219.82543</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1969524.542</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8688.444</v>
@@ -2219,7 +2285,7 @@
         <v>12817.88486</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>17035.27078</v>
+        <v>17035.56944</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>26560.99362</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>49490.90444</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>53999.261</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>25304.31067</v>
@@ -2255,10 +2326,10 @@
         <v>20255.60355</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>61752.2595</v>
+        <v>62832.40121</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>43918.03698</v>
+        <v>44956.74043</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>45234.42303</v>
@@ -2267,16 +2338,21 @@
         <v>59365.74269</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>87781.85282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>89002.08553999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>75827.803</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>5852.157260000001</v>
+        <v>5852.15726</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>281.5021600000001</v>
@@ -2294,7 +2370,7 @@
         <v>1.2953</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>5.392189999999999</v>
+        <v>5.39219</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1098.47411</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>922.99344</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2503.516</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>71900.91086</v>
+        <v>71900.91086000002</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>65492.19919</v>
@@ -2324,7 +2405,7 @@
         <v>116137.87235</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>80625.49468</v>
+        <v>80625.49467999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>170533.86368</v>
@@ -2333,25 +2414,30 @@
         <v>150075.70542</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>331034.03149</v>
+        <v>366231.80039</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>278444.45155</v>
+        <v>282320.14414</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>509681.76365</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1444324.85666</v>
+        <v>1446481.85723</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>797664.29837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>797339.54752</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1756467.681</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>178.44791</v>
@@ -2372,7 +2458,7 @@
         <v>19680.93959</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>24236.07956</v>
+        <v>24971.55506</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>26750.81246</v>
@@ -2384,13 +2470,18 @@
         <v>74870.48681999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>78072.08500000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>78072.08500000002</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>53347.5</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8412.385179999999</v>
@@ -2444,31 +2540,36 @@
         <v>6539.94065</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6344.450309999999</v>
+        <v>6344.45031</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>6018.67026</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13983.22631</v>
+        <v>14423.28938</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12579.2674</v>
+        <v>12579.26749</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>9346.567560000001</v>
+        <v>9346.56756</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>25499.10205</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>28394.98075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>28392.20949</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>27378.781</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>66745.5631</v>
@@ -2480,7 +2581,7 @@
         <v>124885.21764</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>93552.52055</v>
+        <v>93552.52055000002</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>151024.70431</v>
@@ -2489,25 +2590,30 @@
         <v>150945.46506</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>160152.56981</v>
+        <v>211134.68536</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>420147.6607800001</v>
+        <v>421479.28435</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>379663.27003</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>735745.43048</v>
+        <v>735779.482</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>601903.6686500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>601267.2661900001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>640324.405</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>58890.11841</v>
@@ -2519,7 +2625,7 @@
         <v>100022.48808</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>85679.80410999998</v>
+        <v>85679.80411</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>131132.64973</v>
@@ -2528,25 +2634,30 @@
         <v>141303.29273</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>147494.89597</v>
+        <v>198477.01152</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>394566.28515</v>
+        <v>395897.9087199999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>346759.68006</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>692564.0230299999</v>
+        <v>692598.0745499999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>580533.51526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>580304.6339</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>626500.394</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>7855.444689999999</v>
@@ -2564,7 +2675,7 @@
         <v>19892.05458</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>9642.172329999998</v>
+        <v>9642.172330000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>12657.67384</v>
@@ -2579,13 +2690,18 @@
         <v>43181.40745</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21370.15339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20962.63229</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13824.011</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>239050.5382</v>
@@ -2594,7 +2710,7 @@
         <v>264738.21577</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>322675.62033</v>
+        <v>322675.6203300001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>333260.74697</v>
@@ -2606,25 +2722,30 @@
         <v>517288.65789</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>351311.19557</v>
+        <v>425599.0725</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>416486.69618</v>
+        <v>421085.2518</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>736939.0895</v>
+        <v>736939.0895000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>918333.7328699999</v>
+        <v>915088.7240599999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1199837.23014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1199722.29382</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2442479.26</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>24043.5618</v>
@@ -2645,25 +2766,30 @@
         <v>43479.4843</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>40516.79957</v>
+        <v>42039.78155000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>34036.47125</v>
+        <v>34078.15190999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>139259.72208</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>96511.28067000001</v>
+        <v>96557.02753000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>156888.3497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>156905.8531</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>88669.511</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1135.62775</v>
@@ -2684,10 +2810,10 @@
         <v>1092.88624</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>657.73154</v>
+        <v>667.9331500000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1773.29927</v>
+        <v>1773.64462</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2321.64543</v>
@@ -2696,13 +2822,18 @@
         <v>1758.92212</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>399.75771</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>419.87046</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>821.09</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>22907.93405</v>
@@ -2723,25 +2854,30 @@
         <v>42386.59806</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>39859.06803</v>
+        <v>41371.8484</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>32263.17198</v>
+        <v>32304.50729</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>136938.07665</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>94752.35854999999</v>
+        <v>94798.10540999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>156488.59199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>156485.98264</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>87848.421</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>24206.68209</v>
@@ -2762,25 +2898,30 @@
         <v>31730.36564</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>88452.595</v>
+        <v>89662.03986</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>52533.18790999999</v>
+        <v>52871.06153</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>65077.4813</v>
+        <v>65077.48130000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>49520.18228</v>
+        <v>49771.37186</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>44471.00345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>44668.16754</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>79081.37</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>13335.27068</v>
@@ -2801,7 +2942,7 @@
         <v>2136.50758</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3315.98698</v>
+        <v>4188.011</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>7048.40973</v>
@@ -2810,16 +2951,21 @@
         <v>2599.18002</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3613.45</v>
+        <v>3693.628</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4976.51811</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4976.518109999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3651.71</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>626.71249</v>
@@ -2840,25 +2986,30 @@
         <v>2527.76659</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3127.03989</v>
+        <v>3219.8231</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1716.41495</v>
+        <v>1862.57858</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1335.47701</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2800.755560000001</v>
+        <v>2800.75556</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2082.48214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2084.98214</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6373.504</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>10244.69892</v>
@@ -2867,7 +3018,7 @@
         <v>9538.335190000002</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>37024.51515000001</v>
+        <v>37024.51515</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>11334.3812</v>
@@ -2879,25 +3030,30 @@
         <v>27066.09147</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>82009.56813</v>
+        <v>82254.20576000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>43768.36323</v>
+        <v>43960.07322</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>61142.82427</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>43105.97672</v>
+        <v>43276.9883</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>37412.00320000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>37606.66729</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>69056.156</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>238887.41791</v>
@@ -2918,34 +3074,39 @@
         <v>529037.77655</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>303375.40014</v>
+        <v>377976.81419</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>397989.97952</v>
+        <v>402292.3421799999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>811121.33028</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>965324.83126</v>
+        <v>961874.37973</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1312254.57639</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1311959.97938</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2452067.401</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>49696.70561</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>49409.36284999999</v>
+        <v>49409.36285</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>60805.14382</v>
+        <v>60805.14381999999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>66009.26587999999</v>
@@ -2954,28 +3115,33 @@
         <v>82482.95586</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>94374.06817000001</v>
+        <v>94374.06817</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>87525.51498000001</v>
+        <v>100509.00066</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>97537.30412999999</v>
+        <v>98532.76212999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>144434.47906</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>200910.3494</v>
+        <v>200935.19159</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>242151.07699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>242312.03334</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>432897.741</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>189190.7123</v>
@@ -2987,7 +3153,7 @@
         <v>238280.86126</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>270034.63883</v>
+        <v>270034.6388300001</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>329001.8799</v>
@@ -2996,22 +3162,25 @@
         <v>434663.70838</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>215849.88516</v>
+        <v>277467.81353</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>300452.67539</v>
+        <v>303759.5800499999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>666686.8512200001</v>
+        <v>666686.85122</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>764414.4818600001</v>
+        <v>760939.18814</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1070103.4994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1069647.94604</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2019169.66</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>371</v>
@@ -3050,22 +3222,25 @@
         <v>505</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>576</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>